--- a/src/analysis_examples/circadb/results_lomb/cosinor_10555205_gdpd5_.xlsx
+++ b/src/analysis_examples/circadb/results_lomb/cosinor_10555205_gdpd5_.xlsx
@@ -589,35 +589,35 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.2188580078471553, 0.33087759879405404]</t>
+          <t>[0.2187789355049068, 0.33095667113630256]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>1.354764744831982e-09</v>
+        <v>1.388869685925442e-09</v>
       </c>
       <c r="N2" t="n">
-        <v>1.354764744831982e-09</v>
+        <v>1.388869685925442e-09</v>
       </c>
       <c r="O2" t="n">
         <v>-1.42142130072331</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-1.647842392873926, -1.1950002085726936]</t>
+          <t>[-1.6352634433100022, -1.2075791581366175]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>1.515298997389891e-11</v>
+        <v>5.142997139273575e-12</v>
       </c>
       <c r="R2" t="n">
-        <v>1.515298997389891e-11</v>
+        <v>5.142997139273575e-12</v>
       </c>
       <c r="S2" t="n">
         <v>0.5544373158054239</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.5197568337044101, 0.5891177979064377]</t>
+          <t>[0.5197354566020045, 0.5891391750088433]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -630,10 +630,10 @@
         <v>5.433953953954095</v>
       </c>
       <c r="X2" t="n">
-        <v>4.568368368368485</v>
+        <v>4.616456456456577</v>
       </c>
       <c r="Y2" t="n">
-        <v>6.299539539539706</v>
+        <v>6.251451451451613</v>
       </c>
     </row>
   </sheetData>
